--- a/Ganadería/17.24.xlsx
+++ b/Ganadería/17.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F73E8B0-7FC4-40CE-891E-D5AE694F6428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329FA7DC-DB85-45F9-8D36-406263FA1D92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
   </bookViews>
@@ -1304,10 +1304,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,6 +1320,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1338,19 +1346,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DF591E1E-72E5-4571-94E5-B730FC8969CA}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -1374,13 +1427,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40F6E3E3-53D6-4046-864A-9125C2129A06}" name="Exportaciones_carne__por_principales_productos_destinos_tonelada_2020" displayName="Exportaciones_carne__por_principales_productos_destinos_tonelada_2020" ref="A1:G35" totalsRowShown="0">
   <autoFilter ref="A1:G35" xr:uid="{743E61F4-83A4-4D08-9D8A-DA400C522AFC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9E9AED5B-14F6-44BB-BB2A-EC8D85ACC77C}" name="Cod_pais" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9E9AED5B-14F6-44BB-BB2A-EC8D85ACC77C}" name="Cod_pais" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{E1F683B6-1B46-4478-8CC0-7B7EA285AB22}" name="Pais"/>
     <tableColumn id="3" xr3:uid="{012BEB5F-961A-4C05-B0B3-3EEA3B07A558}" name="id_producto"/>
-    <tableColumn id="4" xr3:uid="{E5ED3DFE-2D5D-4A8E-B3F1-BCCCDC4D1923}" name="producto"/>
-    <tableColumn id="5" xr3:uid="{E5CC7640-D3C9-423E-8869-0404FC8BA0CE}" name="Id_categoria"/>
-    <tableColumn id="6" xr3:uid="{F365BAD4-67B0-4A84-8201-08A8CA0D5C23}" name="categoria"/>
-    <tableColumn id="7" xr3:uid="{58B06C50-07B9-41D8-8F55-B6C717CC99B1}" name="Toneladas" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{E5ED3DFE-2D5D-4A8E-B3F1-BCCCDC4D1923}" name="producto" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E5CC7640-D3C9-423E-8869-0404FC8BA0CE}" name="Id_categoria" dataDxfId="0" dataCellStyle="Millares [0]"/>
+    <tableColumn id="6" xr3:uid="{F365BAD4-67B0-4A84-8201-08A8CA0D5C23}" name="categoria" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{58B06C50-07B9-41D8-8F55-B6C717CC99B1}" name="Toneladas" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1696,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C05BC6-1B92-465A-B7C0-96B5F7899E76}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,8 +1798,8 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" s="2">
+        <v>100401008</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -1768,8 +1821,8 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" s="2">
+        <v>100401008</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1791,8 +1844,8 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" s="2">
+        <v>100401008</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1814,8 +1867,8 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" s="2">
+        <v>100401008</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1837,8 +1890,8 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" s="2">
+        <v>100401008</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1860,8 +1913,8 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" s="2">
+        <v>100401008</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -1883,8 +1936,8 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" s="2">
+        <v>100401008</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1906,8 +1959,8 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" s="2">
+        <v>100401008</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1929,8 +1982,8 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" s="2">
+        <v>100401008</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1952,8 +2005,8 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" s="2">
+        <v>100401008</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1975,8 +2028,8 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" s="2">
+        <v>100401008</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1998,8 +2051,8 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" s="2">
+        <v>100401008</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -2021,8 +2074,8 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="E14" s="2">
+        <v>100401008</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -2044,8 +2097,8 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="E15" s="2">
+        <v>100401008</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -2067,8 +2120,8 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="E16" s="2">
+        <v>100401008</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -2090,8 +2143,8 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="E17" s="2">
+        <v>100401008</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -2113,8 +2166,8 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" s="2">
+        <v>100401008</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
@@ -2136,8 +2189,8 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="E19" s="2">
+        <v>100401008</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
@@ -2159,8 +2212,8 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="E20" s="2">
+        <v>100401008</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -2182,8 +2235,8 @@
       <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" s="2">
+        <v>100401008</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -2205,8 +2258,8 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="E22" s="2">
+        <v>100401008</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
@@ -2228,8 +2281,8 @@
       <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23">
-        <v>0</v>
+      <c r="E23" s="2">
+        <v>100401008</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -2251,8 +2304,8 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E24">
-        <v>0</v>
+      <c r="E24" s="2">
+        <v>100401008</v>
       </c>
       <c r="F24" t="s">
         <v>26</v>
@@ -2274,8 +2327,8 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25">
-        <v>0</v>
+      <c r="E25" s="2">
+        <v>100401008</v>
       </c>
       <c r="F25" t="s">
         <v>29</v>
@@ -2297,8 +2350,8 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="E26" s="2">
+        <v>100401008</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
@@ -2320,8 +2373,8 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27">
-        <v>0</v>
+      <c r="E27" s="2">
+        <v>100401008</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -2343,8 +2396,8 @@
       <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="E28" s="2">
+        <v>100401008</v>
       </c>
       <c r="F28" t="s">
         <v>29</v>
@@ -2366,8 +2419,8 @@
       <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="E29">
-        <v>0</v>
+      <c r="E29" s="2">
+        <v>100401008</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -2389,8 +2442,8 @@
       <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E30">
-        <v>0</v>
+      <c r="E30" s="2">
+        <v>100401008</v>
       </c>
       <c r="F30" t="s">
         <v>29</v>
@@ -2412,8 +2465,8 @@
       <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="E31">
-        <v>0</v>
+      <c r="E31" s="2">
+        <v>100401008</v>
       </c>
       <c r="F31" t="s">
         <v>29</v>
@@ -2435,8 +2488,8 @@
       <c r="D32" t="s">
         <v>11</v>
       </c>
-      <c r="E32">
-        <v>0</v>
+      <c r="E32" s="2">
+        <v>100401008</v>
       </c>
       <c r="F32" t="s">
         <v>29</v>
@@ -2458,8 +2511,8 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33">
-        <v>0</v>
+      <c r="E33" s="2">
+        <v>100401008</v>
       </c>
       <c r="F33" t="s">
         <v>29</v>
@@ -2481,8 +2534,8 @@
       <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E34">
-        <v>0</v>
+      <c r="E34" s="2">
+        <v>100401008</v>
       </c>
       <c r="F34" t="s">
         <v>29</v>
@@ -2504,8 +2557,8 @@
       <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E35">
-        <v>0</v>
+      <c r="E35" s="2">
+        <v>100401008</v>
       </c>
       <c r="F35" t="s">
         <v>29</v>

--- a/Ganadería/17.24.xlsx
+++ b/Ganadería/17.24.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329FA7DC-DB85-45F9-8D36-406263FA1D92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAFC407-80EB-4E47-AEC5-FB3B53FFB418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
   </bookViews>
   <sheets>
     <sheet name="producto y destino exportac.ton" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabla auxiliar" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="434">
   <si>
     <t>Cod_pais</t>
   </si>
@@ -1298,17 +1298,46 @@
   </si>
   <si>
     <t>NNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Producto </t>
+  </si>
+  <si>
+    <t>Despojos comestibles, lenguas de bovinos congeladas</t>
+  </si>
+  <si>
+    <t>Los demás despojos comestibles de bovinos, congelados</t>
+  </si>
+  <si>
+    <t>Las demás preparaciones de bovinos, incluidas las mezclas</t>
+  </si>
+  <si>
+    <t>Sub-Producto</t>
+  </si>
+  <si>
+    <t>Cod_Tipo</t>
+  </si>
+  <si>
+    <t>Cog tipo</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Sub- Producto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,13 +1349,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1346,69 +1368,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DF591E1E-72E5-4571-94E5-B730FC8969CA}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1424,16 +1404,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40F6E3E3-53D6-4046-864A-9125C2129A06}" name="Exportaciones_carne__por_principales_productos_destinos_tonelada_2020" displayName="Exportaciones_carne__por_principales_productos_destinos_tonelada_2020" ref="A1:G35" totalsRowShown="0">
-  <autoFilter ref="A1:G35" xr:uid="{743E61F4-83A4-4D08-9D8A-DA400C522AFC}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9E9AED5B-14F6-44BB-BB2A-EC8D85ACC77C}" name="Cod_pais" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40F6E3E3-53D6-4046-864A-9125C2129A06}" name="Exportaciones_carne__por_principales_productos_destinos_tonelada_2020" displayName="Exportaciones_carne__por_principales_productos_destinos_tonelada_2020" ref="A1:I49" totalsRowShown="0">
+  <autoFilter ref="A1:I49" xr:uid="{743E61F4-83A4-4D08-9D8A-DA400C522AFC}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9E9AED5B-14F6-44BB-BB2A-EC8D85ACC77C}" name="Cod_pais" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{E1F683B6-1B46-4478-8CC0-7B7EA285AB22}" name="Pais"/>
     <tableColumn id="3" xr3:uid="{012BEB5F-961A-4C05-B0B3-3EEA3B07A558}" name="id_producto"/>
-    <tableColumn id="4" xr3:uid="{E5ED3DFE-2D5D-4A8E-B3F1-BCCCDC4D1923}" name="producto" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E5CC7640-D3C9-423E-8869-0404FC8BA0CE}" name="Id_categoria" dataDxfId="0" dataCellStyle="Millares [0]"/>
-    <tableColumn id="6" xr3:uid="{F365BAD4-67B0-4A84-8201-08A8CA0D5C23}" name="categoria" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{58B06C50-07B9-41D8-8F55-B6C717CC99B1}" name="Toneladas" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E5ED3DFE-2D5D-4A8E-B3F1-BCCCDC4D1923}" name="producto"/>
+    <tableColumn id="5" xr3:uid="{E5CC7640-D3C9-423E-8869-0404FC8BA0CE}" name="Id_categoria"/>
+    <tableColumn id="6" xr3:uid="{F365BAD4-67B0-4A84-8201-08A8CA0D5C23}" name="categoria"/>
+    <tableColumn id="9" xr3:uid="{49E67644-1C32-4CDE-971D-66D1603D0B05}" name="Cod_Tipo" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{BF05C2A7-514B-482B-84BE-002CDEC2B42C}" name="Tipo "/>
+    <tableColumn id="7" xr3:uid="{58B06C50-07B9-41D8-8F55-B6C717CC99B1}" name="Toneladas" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1445,6 +1427,17 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3C0ED5A1-4864-4317-872E-416ECE4135E2}" name="pais"/>
     <tableColumn id="2" xr3:uid="{3B7510FF-B318-4E09-955B-C2BBB88FDBC5}" name="codigo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BC3A7D50-F001-4AD0-A44C-9FC8D8FB9C69}" name="tipo_producto" displayName="tipo_producto" ref="D2:E4" totalsRowShown="0">
+  <autoFilter ref="D2:E4" xr:uid="{6B5EFF6C-E648-4B0D-9C11-358B035BD781}"/>
+  <tableColumns count="2">
+    <tableColumn id="3" xr3:uid="{E0BE4EFB-AAE7-4672-A588-62163423545E}" name="Tipo "/>
+    <tableColumn id="4" xr3:uid="{5DE2AB8B-C54A-44B9-86F7-6B430075EC65}" name="Cog tipo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1747,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C05BC6-1B92-465A-B7C0-96B5F7899E76}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,10 +1752,12 @@
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1782,10 +1777,16 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -1798,17 +1799,20 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I2" s="1">
         <v>78.114999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -1821,17 +1825,20 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>425</v>
+      </c>
+      <c r="I3" s="1">
         <v>7.7560000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -1844,17 +1851,20 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>425</v>
+      </c>
+      <c r="I4" s="1">
         <v>1.121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>290</v>
       </c>
@@ -1867,17 +1877,20 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>425</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.161</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1890,17 +1903,20 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>425</v>
+      </c>
+      <c r="I6" s="1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -1913,17 +1929,20 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>425</v>
+      </c>
+      <c r="I7" s="1">
         <v>53.182000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -1936,17 +1955,20 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>425</v>
+      </c>
+      <c r="I8" s="1">
         <v>19.129000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1959,17 +1981,20 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>425</v>
+      </c>
+      <c r="I9" s="1">
         <v>14.923</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>360</v>
       </c>
@@ -1982,17 +2007,20 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>425</v>
+      </c>
+      <c r="I10" s="1">
         <v>2.629</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -2005,17 +2033,20 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>425</v>
+      </c>
+      <c r="I11" s="1">
         <v>14.194000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>301</v>
       </c>
@@ -2028,17 +2059,20 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>425</v>
+      </c>
+      <c r="I12" s="1">
         <v>25.004999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -2051,17 +2085,20 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>425</v>
+      </c>
+      <c r="I13" s="1">
         <v>10.103999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -2074,17 +2111,20 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>425</v>
+      </c>
+      <c r="I14" s="1">
         <v>2.2290000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -2097,17 +2137,20 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>425</v>
+      </c>
+      <c r="I15" s="1">
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>413</v>
       </c>
@@ -2120,17 +2163,20 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>425</v>
+      </c>
+      <c r="I16" s="1">
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -2143,17 +2189,20 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>425</v>
+      </c>
+      <c r="I17" s="1">
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>302</v>
       </c>
@@ -2166,17 +2215,20 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>425</v>
+      </c>
+      <c r="I18" s="1">
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -2189,17 +2241,20 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>425</v>
+      </c>
+      <c r="I19" s="1">
         <v>14768.581</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -2212,17 +2267,20 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>425</v>
+      </c>
+      <c r="I20" s="1">
         <v>348.839</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -2235,17 +2293,20 @@
       <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>425</v>
+      </c>
+      <c r="I21" s="1">
         <v>211.96299999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -2258,17 +2319,20 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F22" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>425</v>
+      </c>
+      <c r="I22" s="1">
         <v>4.008</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -2281,17 +2345,20 @@
       <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>425</v>
+      </c>
+      <c r="I23" s="1">
         <v>6.0979999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>302</v>
       </c>
@@ -2304,17 +2371,20 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F24" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>425</v>
+      </c>
+      <c r="I24" s="1">
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -2327,17 +2397,20 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F25" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>425</v>
+      </c>
+      <c r="I25" s="1">
         <v>6141.9669999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -2350,17 +2423,20 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F26" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>425</v>
+      </c>
+      <c r="I26" s="1">
         <v>1248.9649999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -2373,17 +2449,20 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F27" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>425</v>
+      </c>
+      <c r="I27" s="1">
         <v>352.06</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -2396,17 +2475,20 @@
       <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F28" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>425</v>
+      </c>
+      <c r="I28" s="1">
         <v>290.62400000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -2419,17 +2501,20 @@
       <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F29" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>425</v>
+      </c>
+      <c r="I29" s="1">
         <v>109.974</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2442,17 +2527,20 @@
       <c r="D30" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F30" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>425</v>
+      </c>
+      <c r="I30" s="1">
         <v>121.792</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -2465,17 +2553,20 @@
       <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F31" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>425</v>
+      </c>
+      <c r="I31" s="1">
         <v>27.733000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>302</v>
       </c>
@@ -2488,17 +2579,20 @@
       <c r="D32" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F32" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>425</v>
+      </c>
+      <c r="I32" s="1">
         <v>16.863</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>413</v>
       </c>
@@ -2511,17 +2605,20 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F33" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>425</v>
+      </c>
+      <c r="I33" s="1">
         <v>16.861999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>120</v>
       </c>
@@ -2534,17 +2631,20 @@
       <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F34" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>425</v>
+      </c>
+      <c r="I34" s="1">
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>205</v>
       </c>
@@ -2557,18 +2657,385 @@
       <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="2">
-        <v>100401008</v>
-      </c>
       <c r="F35" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>425</v>
+      </c>
+      <c r="I35" s="1">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>100401</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>426</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>429</v>
+      </c>
+      <c r="I36" s="1">
+        <v>395.54899999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>100401</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>426</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>429</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1.897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>100401</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>427</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>429</v>
+      </c>
+      <c r="I38" s="1">
+        <v>356.149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>100401</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>429</v>
+      </c>
+      <c r="I39" s="1">
+        <v>181.62899999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>413</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>100401</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>427</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>429</v>
+      </c>
+      <c r="I40" s="1">
+        <v>122.595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>302</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>100401</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>427</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>429</v>
+      </c>
+      <c r="I41" s="1">
+        <v>131.00200000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42">
+        <v>100401</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>427</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>429</v>
+      </c>
+      <c r="I42" s="1">
+        <v>106.913</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>100401</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>427</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>429</v>
+      </c>
+      <c r="I43" s="1">
+        <v>3.4089999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>100401</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>427</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>429</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>100401</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>428</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>429</v>
+      </c>
+      <c r="I45" s="1">
+        <v>237.392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46">
+        <v>100401</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>428</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>429</v>
+      </c>
+      <c r="I46" s="1">
+        <v>183.83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>100401</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>428</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>429</v>
+      </c>
+      <c r="I47" s="1">
+        <v>162.81299999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48">
+        <v>100401</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>429</v>
+      </c>
+      <c r="I48" s="1">
+        <v>47.142000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>100401</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>428</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>429</v>
+      </c>
+      <c r="I49" s="1">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2582,10 +3049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166D431B-1A7F-4239-AF57-02CAD4448596}">
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,7 +3061,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2602,31 +3069,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2634,7 +3119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2642,7 +3127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2650,7 +3135,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2658,7 +3143,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2666,7 +3151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2674,7 +3159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2682,7 +3167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2690,7 +3175,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2698,7 +3183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2706,7 +3191,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2714,7 +3199,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -4252,8 +4737,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Ganadería/17.24.xlsx
+++ b/Ganadería/17.24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EAFC407-80EB-4E47-AEC5-FB3B53FFB418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3674686-24FB-4A23-9031-1C0F113797B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
   </bookViews>
   <sheets>
     <sheet name="producto y destino exportac.ton" sheetId="1" r:id="rId1"/>
@@ -1382,13 +1382,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1404,18 +1404,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40F6E3E3-53D6-4046-864A-9125C2129A06}" name="Exportaciones_carne__por_principales_productos_destinos_tonelada_2020" displayName="Exportaciones_carne__por_principales_productos_destinos_tonelada_2020" ref="A1:I49" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40F6E3E3-53D6-4046-864A-9125C2129A06}" name="Exportaciones_carne_productos_subproductos_destinos_tonelada_2020" displayName="Exportaciones_carne_productos_subproductos_destinos_tonelada_2020" ref="A1:I49" totalsRowShown="0">
   <autoFilter ref="A1:I49" xr:uid="{743E61F4-83A4-4D08-9D8A-DA400C522AFC}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9E9AED5B-14F6-44BB-BB2A-EC8D85ACC77C}" name="Cod_pais" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9E9AED5B-14F6-44BB-BB2A-EC8D85ACC77C}" name="Cod_pais" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{E1F683B6-1B46-4478-8CC0-7B7EA285AB22}" name="Pais"/>
     <tableColumn id="3" xr3:uid="{012BEB5F-961A-4C05-B0B3-3EEA3B07A558}" name="id_producto"/>
     <tableColumn id="4" xr3:uid="{E5ED3DFE-2D5D-4A8E-B3F1-BCCCDC4D1923}" name="producto"/>
     <tableColumn id="5" xr3:uid="{E5CC7640-D3C9-423E-8869-0404FC8BA0CE}" name="Id_categoria"/>
     <tableColumn id="6" xr3:uid="{F365BAD4-67B0-4A84-8201-08A8CA0D5C23}" name="categoria"/>
-    <tableColumn id="9" xr3:uid="{49E67644-1C32-4CDE-971D-66D1603D0B05}" name="Cod_Tipo" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{49E67644-1C32-4CDE-971D-66D1603D0B05}" name="Cod_Tipo" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{BF05C2A7-514B-482B-84BE-002CDEC2B42C}" name="Tipo "/>
-    <tableColumn id="7" xr3:uid="{58B06C50-07B9-41D8-8F55-B6C717CC99B1}" name="Toneladas" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{58B06C50-07B9-41D8-8F55-B6C717CC99B1}" name="Toneladas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ganadería/17.24.xlsx
+++ b/Ganadería/17.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3674686-24FB-4A23-9031-1C0F113797B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70879B7-3C73-42A4-97E4-E1E1DBD205CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
+    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
   </bookViews>
   <sheets>
     <sheet name="producto y destino exportac.ton" sheetId="1" r:id="rId1"/>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,6 +1799,9 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
@@ -1825,6 +1828,9 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -1851,6 +1857,9 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
@@ -1877,6 +1886,9 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
@@ -1903,6 +1915,9 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
@@ -1929,6 +1944,9 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
@@ -1955,6 +1973,9 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
@@ -1981,6 +2002,9 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
@@ -2007,6 +2031,9 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
@@ -2033,6 +2060,9 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
@@ -2059,6 +2089,9 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
@@ -2085,6 +2118,9 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
@@ -2111,6 +2147,9 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
@@ -2137,6 +2176,9 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
@@ -2163,6 +2205,9 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
       <c r="F16" t="s">
         <v>22</v>
       </c>
@@ -2189,6 +2234,9 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
       <c r="F17" t="s">
         <v>22</v>
       </c>
@@ -2215,6 +2263,9 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
@@ -2241,6 +2292,9 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
@@ -2267,6 +2321,9 @@
       <c r="D20" t="s">
         <v>11</v>
       </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
@@ -2293,6 +2350,9 @@
       <c r="D21" t="s">
         <v>11</v>
       </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
@@ -2319,6 +2379,9 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
       <c r="F22" t="s">
         <v>26</v>
       </c>
@@ -2345,6 +2408,9 @@
       <c r="D23" t="s">
         <v>11</v>
       </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
       <c r="F23" t="s">
         <v>26</v>
       </c>
@@ -2371,6 +2437,9 @@
       <c r="D24" t="s">
         <v>11</v>
       </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
       <c r="F24" t="s">
         <v>26</v>
       </c>
@@ -2397,6 +2466,9 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="F25" t="s">
         <v>29</v>
       </c>
@@ -2423,6 +2495,9 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
       <c r="F26" t="s">
         <v>29</v>
       </c>
@@ -2449,6 +2524,9 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
       <c r="F27" t="s">
         <v>29</v>
       </c>
@@ -2475,6 +2553,9 @@
       <c r="D28" t="s">
         <v>11</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="F28" t="s">
         <v>29</v>
       </c>
@@ -2501,6 +2582,9 @@
       <c r="D29" t="s">
         <v>11</v>
       </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
       <c r="F29" t="s">
         <v>29</v>
       </c>
@@ -2527,6 +2611,9 @@
       <c r="D30" t="s">
         <v>11</v>
       </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
       <c r="F30" t="s">
         <v>29</v>
       </c>
@@ -2553,6 +2640,9 @@
       <c r="D31" t="s">
         <v>11</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
       <c r="F31" t="s">
         <v>29</v>
       </c>
@@ -2579,6 +2669,9 @@
       <c r="D32" t="s">
         <v>11</v>
       </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
       <c r="F32" t="s">
         <v>29</v>
       </c>
@@ -2605,6 +2698,9 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
       <c r="F33" t="s">
         <v>29</v>
       </c>
@@ -2631,6 +2727,9 @@
       <c r="D34" t="s">
         <v>11</v>
       </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
       <c r="F34" t="s">
         <v>29</v>
       </c>
@@ -2657,6 +2756,9 @@
       <c r="D35" t="s">
         <v>11</v>
       </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
       <c r="F35" t="s">
         <v>29</v>
       </c>
@@ -2683,6 +2785,9 @@
       <c r="D36" t="s">
         <v>11</v>
       </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
       <c r="F36" t="s">
         <v>426</v>
       </c>
@@ -2709,6 +2814,9 @@
       <c r="D37" t="s">
         <v>11</v>
       </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
       <c r="F37" t="s">
         <v>426</v>
       </c>
@@ -2735,6 +2843,9 @@
       <c r="D38" t="s">
         <v>11</v>
       </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
       <c r="F38" t="s">
         <v>427</v>
       </c>
@@ -2761,6 +2872,9 @@
       <c r="D39" t="s">
         <v>11</v>
       </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
       <c r="F39" t="s">
         <v>427</v>
       </c>
@@ -2787,6 +2901,9 @@
       <c r="D40" t="s">
         <v>11</v>
       </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
       <c r="F40" t="s">
         <v>427</v>
       </c>
@@ -2813,6 +2930,9 @@
       <c r="D41" t="s">
         <v>11</v>
       </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
       <c r="F41" t="s">
         <v>427</v>
       </c>
@@ -2839,6 +2959,9 @@
       <c r="D42" t="s">
         <v>11</v>
       </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
       <c r="F42" t="s">
         <v>427</v>
       </c>
@@ -2865,6 +2988,9 @@
       <c r="D43" t="s">
         <v>11</v>
       </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
       <c r="F43" t="s">
         <v>427</v>
       </c>
@@ -2891,6 +3017,9 @@
       <c r="D44" t="s">
         <v>11</v>
       </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
       <c r="F44" t="s">
         <v>427</v>
       </c>
@@ -2917,6 +3046,9 @@
       <c r="D45" t="s">
         <v>11</v>
       </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
       <c r="F45" t="s">
         <v>428</v>
       </c>
@@ -2943,6 +3075,9 @@
       <c r="D46" t="s">
         <v>11</v>
       </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
       <c r="F46" t="s">
         <v>428</v>
       </c>
@@ -2969,6 +3104,9 @@
       <c r="D47" t="s">
         <v>11</v>
       </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
       <c r="F47" t="s">
         <v>428</v>
       </c>
@@ -2995,6 +3133,9 @@
       <c r="D48" t="s">
         <v>11</v>
       </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
       <c r="F48" t="s">
         <v>428</v>
       </c>
@@ -3020,6 +3161,9 @@
       </c>
       <c r="D49" t="s">
         <v>11</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
       </c>
       <c r="F49" t="s">
         <v>428</v>
